--- a/data/videos.xlsx
+++ b/data/videos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>The beginnings</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/psi-statisticians-in-the-pharmaceutical-industry_collaboration-estimands-leadership-activity-7175491198772502528-6GV0?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Advice for future similar initiatives</t>
   </si>
 </sst>
 </file>
@@ -399,6 +405,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>"18/03/2024"</f>
+        <v>18/03/2024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>

--- a/data/videos.xlsx
+++ b/data/videos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Advice for future similar initiatives</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/efspi_collaboration-oncoestimand-activity-7188436872816177152-4-vm?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>PRO task force</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,6 +423,18 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>"23/04/2024"</f>
+        <v>23/04/2024</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
@@ -424,6 +442,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/videos.xlsx
+++ b/data/videos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>PRO task force</t>
+  </si>
+  <si>
+    <t>Early development</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/posts/asa-biopharmaceutical-section-7a435550_oncology-estimand-working-group-activity-7201386704098709504-cYZx?utm_source=share&amp;utm_medium=member_desktop</t>
   </si>
 </sst>
 </file>
@@ -378,13 +384,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -435,6 +441,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>"29/05/2024"</f>
+        <v>29/05/2024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
@@ -443,6 +461,7 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
